--- a/K odevzdání/Use Case - Požadavky.xlsx
+++ b/K odevzdání/Use Case - Požadavky.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,9 +383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -423,7 +423,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -495,7 +495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,6 +669,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
@@ -1161,7 +1164,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/K odevzdání/Use Case - Požadavky.xlsx
+++ b/K odevzdání/Use Case - Požadavky.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>Use Case</t>
   </si>
@@ -320,6 +320,18 @@
   </si>
   <si>
     <t>Systém po zaplacení/uložení pohledávky uzavře účet a odešle výkaz do uložiště, kde ho bude mít manažer možnost prohlížet.</t>
+  </si>
+  <si>
+    <t>Systém bude umožňovat měnit provedené rezervace stolů.</t>
+  </si>
+  <si>
+    <t>Změnit rezervaci stolu</t>
+  </si>
+  <si>
+    <t>Systém bude umožňovat rušit provedené rezervace stolů.</t>
+  </si>
+  <si>
+    <t>Zrušit rezervaci stolu</t>
   </si>
 </sst>
 </file>
@@ -672,10 +684,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,457 +721,473 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
       <c r="C42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>35</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>35</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>68</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
       <c r="C56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>96</v>
-      </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>101</v>
       </c>
     </row>

--- a/K odevzdání/Use Case - Požadavky.xlsx
+++ b/K odevzdání/Use Case - Požadavky.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Funkční požadavky" sheetId="1" r:id="rId1"/>
+    <sheet name="Obecné požadavky" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
   <si>
     <t>Use Case</t>
   </si>
@@ -28,9 +29,6 @@
     <t>Systém bude umožňovat při objednávání více způsobů zadávání – výběr ze seznamu (jídelního lístku) včetně jeho filtrování psaním (části) názvu položky.</t>
   </si>
   <si>
-    <t>Požadavky</t>
-  </si>
-  <si>
     <t>Kdo</t>
   </si>
   <si>
@@ -49,9 +47,6 @@
     <t>Připravit platbu (+ účtenka)</t>
   </si>
   <si>
-    <t>Systém bude z jídelního lístku v terminálu automaticky označovat položky, které byly z kuchyně označeny příznakem nedostatku surovin.</t>
-  </si>
-  <si>
     <t>Systém bude v jídelním lístku v terminálu automaticky označovat položky, které byly z kuchyně onačeny příznakem zdržení.</t>
   </si>
   <si>
@@ -332,13 +327,58 @@
   </si>
   <si>
     <t>Zrušit rezervaci stolu</t>
+  </si>
+  <si>
+    <t>Katalog Use Case &lt;-&gt; Funkčních požadavků</t>
+  </si>
+  <si>
+    <t>Funkční požadavky</t>
+  </si>
+  <si>
+    <t>Priorita</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Systém bude v jídelním lístku v terminálu automaticky označovat položky, které byly z kuchyně označeny příznakem nedostatku surovin.</t>
+  </si>
+  <si>
+    <t>Obecné požadavky</t>
+  </si>
+  <si>
+    <t>architektura</t>
+  </si>
+  <si>
+    <t>zavedení LAN sítě v místě provozu pro propojení jednotlivých PC stanic/terminálů</t>
+  </si>
+  <si>
+    <t>Veškeré ovládání systému bude formou samostatného programu pro OS Windows případně jako webové rozhraní.</t>
+  </si>
+  <si>
+    <t>Systém musí být schopný konzistentního provozu na běžném HW (tedy max. dual-core CPU a 2GB RAM, případně výkonově odpovídající terminál).</t>
+  </si>
+  <si>
+    <t>Centrální server je třeba dimenzovat dle odhadu zadavatele o počtu zákazníků jeho provozu a za tímto účelem předá dodavateli potřebná data případně po dohodě provede analýzu sám.</t>
+  </si>
+  <si>
+    <t>Katalog Obecných požadavků</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +396,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,10 +414,73 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -377,14 +489,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -684,515 +912,994 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="138.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="1" customWidth="1"/>
+    <col min="3" max="3" width="138.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="C63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="C64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+      <c r="C65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="C66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="C73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="10"/>
+      <c r="C79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="10"/>
+      <c r="C82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="10"/>
+      <c r="C83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="C84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="C85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="10"/>
+      <c r="C86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="10"/>
+      <c r="C87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="10"/>
+      <c r="C88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="10"/>
+      <c r="C89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="10"/>
+      <c r="C90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="10"/>
+      <c r="C91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="10"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="10"/>
+      <c r="C94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="10"/>
+      <c r="C95" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="10"/>
+      <c r="C96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="10"/>
+      <c r="C97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D100:D1048576 D1:D97">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="P3">
+      <formula>NOT(ISERROR(SEARCH("P3",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="P2">
+      <formula>NOT(ISERROR(SEARCH("P2",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="P1">
+      <formula>NOT(ISERROR(SEARCH("P1",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="138.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>101</v>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="P3">
+      <formula>NOT(ISERROR(SEARCH("P3",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="P2">
+      <formula>NOT(ISERROR(SEARCH("P2",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="P1">
+      <formula>NOT(ISERROR(SEARCH("P1",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>